--- a/temp/3月待填充表.xlsx
+++ b/temp/3月待填充表.xlsx
@@ -496,7 +496,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>来源</t>
+          <t>from</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>进项</t>
+          <t>in</t>
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
@@ -614,7 +614,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>进项</t>
+          <t>in</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
@@ -669,7 +669,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>进项</t>
+          <t>in</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>进项</t>
+          <t>in</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -779,7 +779,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>进项</t>
+          <t>in</t>
         </is>
       </c>
       <c r="N6" t="inlineStr"/>
@@ -834,7 +834,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>进项</t>
+          <t>in</t>
         </is>
       </c>
       <c r="N7" t="inlineStr"/>
@@ -889,7 +889,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>进项</t>
+          <t>in</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
@@ -944,7 +944,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>进项</t>
+          <t>in</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
@@ -999,7 +999,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>进项</t>
+          <t>in</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>进项</t>
+          <t>in</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>进项</t>
+          <t>in</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>进项</t>
+          <t>in</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>进项</t>
+          <t>in</t>
         </is>
       </c>
       <c r="N14" t="inlineStr"/>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>进项</t>
+          <t>in</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>进项</t>
+          <t>in</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>进项</t>
+          <t>in</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>进项</t>
+          <t>in</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>进项</t>
+          <t>in</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>进项</t>
+          <t>in</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
@@ -1604,7 +1604,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>进项</t>
+          <t>in</t>
         </is>
       </c>
       <c r="N21" t="inlineStr"/>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>进项</t>
+          <t>in</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>进项</t>
+          <t>in</t>
         </is>
       </c>
       <c r="N23" t="inlineStr"/>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>进项</t>
+          <t>in</t>
         </is>
       </c>
       <c r="N24" t="inlineStr"/>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>进项</t>
+          <t>in</t>
         </is>
       </c>
       <c r="N25" t="inlineStr"/>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>进项</t>
+          <t>in</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>进项</t>
+          <t>in</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>进项</t>
+          <t>in</t>
         </is>
       </c>
       <c r="N28" t="inlineStr"/>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>进项</t>
+          <t>in</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>进项</t>
+          <t>in</t>
         </is>
       </c>
       <c r="N30" t="inlineStr"/>
@@ -2122,7 +2122,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>进项</t>
+          <t>in</t>
         </is>
       </c>
       <c r="N31" t="inlineStr"/>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>进项</t>
+          <t>in</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>进项</t>
+          <t>in</t>
         </is>
       </c>
       <c r="N33" t="inlineStr"/>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>进项</t>
+          <t>in</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -2530,7 +2530,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -2758,7 +2758,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -2815,7 +2815,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -2929,7 +2929,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -3157,7 +3157,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -3556,7 +3556,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -3898,7 +3898,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -3955,7 +3955,7 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -4012,7 +4012,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -4069,7 +4069,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -4240,7 +4240,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -4354,7 +4354,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -4411,7 +4411,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -4468,7 +4468,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -4525,7 +4525,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -4582,7 +4582,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -4639,7 +4639,7 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -4753,7 +4753,7 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -4810,7 +4810,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -4924,7 +4924,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -5038,7 +5038,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -5095,7 +5095,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -5152,7 +5152,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -5323,7 +5323,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -5494,7 +5494,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -5551,7 +5551,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -5665,7 +5665,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -5722,7 +5722,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -5779,7 +5779,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -5893,7 +5893,7 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -5950,7 +5950,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -6007,7 +6007,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>销项</t>
+          <t>out</t>
         </is>
       </c>
       <c r="N101" t="inlineStr"/>
